--- a/Stock-XLSX/FF-EBonds/HD.xlsx
+++ b/Stock-XLSX/FF-EBonds/HD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/Freedom-Fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{B70F5E0A-C338-4C09-B6B7-D09A2BA22522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574F27AB-CFE4-4B2D-AC88-5F9882B67ECF}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{B70F5E0A-C338-4C09-B6B7-D09A2BA22522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE74232-3930-4ED1-A00A-BB1AC4EDD22F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -521,6 +521,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1001,19 +1001,19 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MOS: 3.0%</a:t>
+            <a:t>MOS: 2.7%</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Median Low: 2.3%</a:t>
+            <a:t>Median Low: 2.1%</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Median High: 2.6%</a:t>
+            <a:t>Median High: 2.3%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1593,7 +1593,7 @@
   <dimension ref="B3:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J28:J32"/>
+      <selection activeCell="J24" sqref="J24:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,7 +2622,7 @@
   <dimension ref="B3:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O20:O33"/>
+      <selection activeCell="T34" sqref="T29:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9605,7 +9605,7 @@
   <dimension ref="B2:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:T11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9628,20 +9628,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
@@ -9692,47 +9692,47 @@
         <v>47</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="K4" s="3">
         <f>(J4*$J6)+J4</f>
-        <v>0</v>
+        <v>8.5120000000000005</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" ref="L4:T4" si="0">(K4*$J6)+K4</f>
-        <v>0</v>
+        <v>9.5334400000000006</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.677452800000001</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.958747136000001</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.393796792320002</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.001052407398401</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.801178696286208</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.817320139840554</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.075398556621419</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.60444638341599</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -9743,47 +9743,47 @@
         <v>48</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="e">
+        <v>283</v>
+      </c>
+      <c r="K5" s="1">
         <f>K4/$J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="1" t="e">
+        <v>340.48</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" ref="L5:T5" si="1">L4/$J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="1" t="e">
+        <v>381.33760000000001</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
+        <v>427.09811200000001</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="1" t="e">
+        <v>478.34988544000004</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="1" t="e">
+        <v>535.75187169280002</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="1" t="e">
+        <v>600.04209629593595</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="1" t="e">
+        <v>672.04714785144824</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="1" t="e">
+        <v>752.6928055936221</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="1" t="e">
+        <v>843.01594226485668</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>944.1778553366396</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="17">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -9805,7 +9805,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
@@ -9815,49 +9815,49 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="2" t="e">
+      <c r="J8" s="2">
         <f>J4/$J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>2.6855123674911659E-2</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" ref="K8:T8" si="2">K4/$J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>3.0077738515901061E-2</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>3.3687067137809189E-2</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
+        <v>3.7729515194346294E-2</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" s="2" t="e">
+        <v>4.2257057017667847E-2</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="2" t="e">
+        <v>4.7327903859787988E-2</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="2" t="e">
+        <v>5.300725232296255E-2</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="2" t="e">
+        <v>5.9368122601718046E-2</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="2" t="e">
+        <v>6.6492297313924212E-2</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="2" t="e">
+        <v>7.4471372991595119E-2</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.3407937750586539E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
@@ -9874,18 +9874,18 @@
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
@@ -10070,26 +10070,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
